--- a/inputs/EU2 GPP 2023 Full Datamap.xlsx
+++ b/inputs/EU2 GPP 2023 Full Datamap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\EU-copilot\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC416640-1351-4DC5-B1D0-CF7ED459651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E843A3-3B32-4506-A897-6C05EE05E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" tabRatio="895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="21" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Example q60" sheetId="25" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Map'!$A$1:$F$423</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Data Map'!$A$1:$F$429</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="991">
   <si>
     <t>Position</t>
   </si>
@@ -5880,6 +5880,18 @@
   </si>
   <si>
     <t>[Record Number 1–11]</t>
+  </si>
+  <si>
+    <t>q60_G1_98</t>
+  </si>
+  <si>
+    <t>q60_G1_99</t>
+  </si>
+  <si>
+    <t>q60_G2_98</t>
+  </si>
+  <si>
+    <t>q60_G2_99</t>
   </si>
 </sst>
 </file>
@@ -6356,6 +6368,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6433,9 +6448,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6852,109 +6864,109 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="26" t="s">
+    <row r="1" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
         <v>364</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
         <v>889</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
         <v>888</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
         <v>890</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="23" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
         <v>951</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -6981,25 +6993,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F431"/>
+  <dimension ref="A1:F437"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="42" style="8" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="49" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="8"/>
+    <col min="6" max="6" width="36.140625" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7035,11 +7047,11 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7055,11 +7067,11 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7075,11 +7087,11 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="23" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7093,11 +7105,11 @@
       <c r="E5" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7111,11 +7123,11 @@
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7131,11 +7143,11 @@
       <c r="E7" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="23" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7151,11 +7163,11 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7171,11 +7183,11 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7191,11 +7203,11 @@
       <c r="E10" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7211,11 +7223,11 @@
       <c r="E11" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7231,11 +7243,11 @@
       <c r="E12" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7251,11 +7263,11 @@
       <c r="E13" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7271,11 +7283,11 @@
       <c r="E14" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7291,11 +7303,11 @@
       <c r="E15" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7311,11 +7323,11 @@
       <c r="E16" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7331,11 +7343,11 @@
       <c r="E17" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7351,11 +7363,11 @@
       <c r="E18" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7371,11 +7383,11 @@
       <c r="E19" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7391,11 +7403,11 @@
       <c r="E20" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7411,11 +7423,11 @@
       <c r="E21" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7431,11 +7443,11 @@
       <c r="E22" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7451,11 +7463,11 @@
       <c r="E23" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7471,11 +7483,11 @@
       <c r="E24" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7491,11 +7503,11 @@
       <c r="E25" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7511,11 +7523,11 @@
       <c r="E26" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7531,11 +7543,11 @@
       <c r="E27" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7551,11 +7563,11 @@
       <c r="E28" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7571,11 +7583,11 @@
       <c r="E29" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7591,11 +7603,11 @@
       <c r="E30" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7611,11 +7623,11 @@
       <c r="E31" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7631,11 +7643,11 @@
       <c r="E32" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7651,11 +7663,11 @@
       <c r="E33" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7671,11 +7683,11 @@
       <c r="E34" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7691,11 +7703,11 @@
       <c r="E35" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7711,11 +7723,11 @@
       <c r="E36" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7731,11 +7743,11 @@
       <c r="E37" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7751,11 +7763,11 @@
       <c r="E38" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7771,11 +7783,11 @@
       <c r="E39" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7791,11 +7803,11 @@
       <c r="E40" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7811,11 +7823,11 @@
       <c r="E41" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7831,11 +7843,11 @@
       <c r="E42" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7851,11 +7863,11 @@
       <c r="E43" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7871,11 +7883,11 @@
       <c r="E44" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="23" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7891,11 +7903,11 @@
       <c r="E45" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7911,11 +7923,11 @@
       <c r="E46" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7931,11 +7943,11 @@
       <c r="E47" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7951,11 +7963,11 @@
       <c r="E48" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7971,11 +7983,11 @@
       <c r="E49" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7991,11 +8003,11 @@
       <c r="E50" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8011,11 +8023,11 @@
       <c r="E51" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8031,11 +8043,11 @@
       <c r="E52" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8051,11 +8063,11 @@
       <c r="E53" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8071,11 +8083,11 @@
       <c r="E54" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8091,11 +8103,11 @@
       <c r="E55" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8111,11 +8123,11 @@
       <c r="E56" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8131,11 +8143,11 @@
       <c r="E57" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8151,11 +8163,11 @@
       <c r="E58" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8171,11 +8183,11 @@
       <c r="E59" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F59" s="49" t="s">
+      <c r="F59" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8191,11 +8203,11 @@
       <c r="E60" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8211,11 +8223,11 @@
       <c r="E61" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8231,11 +8243,11 @@
       <c r="E62" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8251,11 +8263,11 @@
       <c r="E63" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8271,11 +8283,11 @@
       <c r="E64" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F64" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8291,11 +8303,11 @@
       <c r="E65" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8311,11 +8323,11 @@
       <c r="E66" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="F66" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8331,11 +8343,11 @@
       <c r="E67" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F67" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8351,11 +8363,11 @@
       <c r="E68" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F68" s="49" t="s">
+      <c r="F68" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8371,11 +8383,11 @@
       <c r="E69" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F69" s="49" t="s">
+      <c r="F69" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8391,11 +8403,11 @@
       <c r="E70" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F70" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8411,11 +8423,11 @@
       <c r="E71" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F71" s="49" t="s">
+      <c r="F71" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8431,11 +8443,11 @@
       <c r="E72" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="F72" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8451,11 +8463,11 @@
       <c r="E73" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F73" s="49" t="s">
+      <c r="F73" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8471,11 +8483,11 @@
       <c r="E74" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F74" s="49" t="s">
+      <c r="F74" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8491,11 +8503,11 @@
       <c r="E75" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F75" s="49" t="s">
+      <c r="F75" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8511,11 +8523,11 @@
       <c r="E76" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F76" s="49" t="s">
+      <c r="F76" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8531,11 +8543,11 @@
       <c r="E77" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F77" s="49" t="s">
+      <c r="F77" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8551,11 +8563,11 @@
       <c r="E78" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F78" s="49" t="s">
+      <c r="F78" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8571,11 +8583,11 @@
       <c r="E79" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F79" s="49" t="s">
+      <c r="F79" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8591,11 +8603,11 @@
       <c r="E80" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="F80" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8611,11 +8623,11 @@
       <c r="E81" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="F81" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8631,11 +8643,11 @@
       <c r="E82" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F82" s="49" t="s">
+      <c r="F82" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8651,11 +8663,11 @@
       <c r="E83" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F83" s="49" t="s">
+      <c r="F83" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8671,11 +8683,11 @@
       <c r="E84" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F84" s="49" t="s">
+      <c r="F84" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8691,11 +8703,11 @@
       <c r="E85" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8711,11 +8723,11 @@
       <c r="E86" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F86" s="49" t="s">
+      <c r="F86" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8731,11 +8743,11 @@
       <c r="E87" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F87" s="49" t="s">
+      <c r="F87" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8751,11 +8763,11 @@
       <c r="E88" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F88" s="49" t="s">
+      <c r="F88" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8771,11 +8783,11 @@
       <c r="E89" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F89" s="49" t="s">
+      <c r="F89" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8791,11 +8803,11 @@
       <c r="E90" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F90" s="49" t="s">
+      <c r="F90" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8811,11 +8823,11 @@
       <c r="E91" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F91" s="49" t="s">
+      <c r="F91" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8831,11 +8843,11 @@
       <c r="E92" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F92" s="49" t="s">
+      <c r="F92" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8851,11 +8863,11 @@
       <c r="E93" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F93" s="49" t="s">
+      <c r="F93" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -8871,11 +8883,11 @@
       <c r="E94" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F94" s="49" t="s">
+      <c r="F94" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -8891,11 +8903,11 @@
       <c r="E95" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F95" s="49" t="s">
+      <c r="F95" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8911,11 +8923,11 @@
       <c r="E96" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F96" s="49" t="s">
+      <c r="F96" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -8931,11 +8943,11 @@
       <c r="E97" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F97" s="49" t="s">
+      <c r="F97" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -8949,11 +8961,11 @@
       <c r="E98" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F98" s="49" t="s">
+      <c r="F98" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -8967,11 +8979,11 @@
       <c r="E99" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F99" s="49" t="s">
+      <c r="F99" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -8985,11 +8997,11 @@
       <c r="E100" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F100" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9003,11 +9015,11 @@
       <c r="E101" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F101" s="49" t="s">
+      <c r="F101" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9021,11 +9033,11 @@
       <c r="E102" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F102" s="49" t="s">
+      <c r="F102" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9039,11 +9051,11 @@
       <c r="E103" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F103" s="49" t="s">
+      <c r="F103" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9057,11 +9069,11 @@
       <c r="E104" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F104" s="49" t="s">
+      <c r="F104" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9075,11 +9087,11 @@
       <c r="E105" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F105" s="49" t="s">
+      <c r="F105" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9093,11 +9105,11 @@
       <c r="E106" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F106" s="49" t="s">
+      <c r="F106" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9111,11 +9123,11 @@
       <c r="E107" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F107" s="49" t="s">
+      <c r="F107" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -9129,11 +9141,11 @@
       <c r="E108" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F108" s="49" t="s">
+      <c r="F108" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -9147,11 +9159,11 @@
       <c r="E109" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F109" s="49" t="s">
+      <c r="F109" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -9165,11 +9177,11 @@
       <c r="E110" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F110" s="49" t="s">
+      <c r="F110" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -9183,11 +9195,11 @@
       <c r="E111" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F111" s="49" t="s">
+      <c r="F111" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -9201,11 +9213,11 @@
       <c r="E112" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F112" s="49" t="s">
+      <c r="F112" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -9219,11 +9231,11 @@
       <c r="E113" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F113" s="49" t="s">
+      <c r="F113" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -9237,11 +9249,11 @@
       <c r="E114" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F114" s="49" t="s">
+      <c r="F114" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -9255,11 +9267,11 @@
       <c r="E115" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F115" s="49" t="s">
+      <c r="F115" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9273,11 +9285,11 @@
       <c r="E116" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F116" s="49" t="s">
+      <c r="F116" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -9291,11 +9303,11 @@
       <c r="E117" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F117" s="49" t="s">
+      <c r="F117" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9309,11 +9321,11 @@
       <c r="E118" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F118" s="49" t="s">
+      <c r="F118" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9327,11 +9339,11 @@
       <c r="E119" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F119" s="49" t="s">
+      <c r="F119" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9345,11 +9357,11 @@
       <c r="E120" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F120" s="49" t="s">
+      <c r="F120" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9363,11 +9375,11 @@
       <c r="E121" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F121" s="49" t="s">
+      <c r="F121" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9381,11 +9393,11 @@
       <c r="E122" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F122" s="49" t="s">
+      <c r="F122" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9399,11 +9411,11 @@
       <c r="E123" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F123" s="49" t="s">
+      <c r="F123" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9417,11 +9429,11 @@
       <c r="E124" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F124" s="49" t="s">
+      <c r="F124" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9435,11 +9447,11 @@
       <c r="E125" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F125" s="49" t="s">
+      <c r="F125" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9453,11 +9465,11 @@
       <c r="E126" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F126" s="49" t="s">
+      <c r="F126" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9471,11 +9483,11 @@
       <c r="E127" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F127" s="49" t="s">
+      <c r="F127" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9489,11 +9501,11 @@
       <c r="E128" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F128" s="49" t="s">
+      <c r="F128" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9507,11 +9519,11 @@
       <c r="E129" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F129" s="49" t="s">
+      <c r="F129" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9525,11 +9537,11 @@
       <c r="E130" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F130" s="49" t="s">
+      <c r="F130" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9543,11 +9555,11 @@
       <c r="E131" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F131" s="49" t="s">
+      <c r="F131" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9561,11 +9573,11 @@
       <c r="E132" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F132" s="49" t="s">
+      <c r="F132" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9579,11 +9591,11 @@
       <c r="E133" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F133" s="49" t="s">
+      <c r="F133" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9597,11 +9609,11 @@
       <c r="E134" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F134" s="49" t="s">
+      <c r="F134" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9615,11 +9627,11 @@
       <c r="E135" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F135" s="49" t="s">
+      <c r="F135" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9633,11 +9645,11 @@
       <c r="E136" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F136" s="49" t="s">
+      <c r="F136" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9651,11 +9663,11 @@
       <c r="E137" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F137" s="49" t="s">
+      <c r="F137" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9669,11 +9681,11 @@
       <c r="E138" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F138" s="49" t="s">
+      <c r="F138" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9687,11 +9699,11 @@
       <c r="E139" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F139" s="49" t="s">
+      <c r="F139" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9705,11 +9717,11 @@
       <c r="E140" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F140" s="49" t="s">
+      <c r="F140" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9723,11 +9735,11 @@
       <c r="E141" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F141" s="49" t="s">
+      <c r="F141" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9741,11 +9753,11 @@
       <c r="E142" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F142" s="49" t="s">
+      <c r="F142" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9759,11 +9771,11 @@
       <c r="E143" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F143" s="49" t="s">
+      <c r="F143" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9777,11 +9789,11 @@
       <c r="E144" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F144" s="49" t="s">
+      <c r="F144" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9795,11 +9807,11 @@
       <c r="E145" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F145" s="49" t="s">
+      <c r="F145" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -9813,11 +9825,11 @@
       <c r="E146" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F146" s="49" t="s">
+      <c r="F146" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -9831,11 +9843,11 @@
       <c r="E147" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F147" s="49" t="s">
+      <c r="F147" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -9849,11 +9861,11 @@
       <c r="E148" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F148" s="49" t="s">
+      <c r="F148" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -9867,11 +9879,11 @@
       <c r="E149" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F149" s="49" t="s">
+      <c r="F149" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -9885,11 +9897,11 @@
       <c r="E150" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F150" s="49" t="s">
+      <c r="F150" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -9903,11 +9915,11 @@
       <c r="E151" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F151" s="49" t="s">
+      <c r="F151" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -9921,11 +9933,11 @@
       <c r="E152" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F152" s="49" t="s">
+      <c r="F152" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -9939,11 +9951,11 @@
       <c r="E153" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F153" s="49" t="s">
+      <c r="F153" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -9957,11 +9969,11 @@
       <c r="E154" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F154" s="49" t="s">
+      <c r="F154" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -9975,11 +9987,11 @@
       <c r="E155" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F155" s="49" t="s">
+      <c r="F155" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -9993,11 +10005,11 @@
       <c r="E156" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F156" s="49" t="s">
+      <c r="F156" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10011,11 +10023,11 @@
       <c r="E157" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F157" s="49" t="s">
+      <c r="F157" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10029,11 +10041,11 @@
       <c r="E158" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F158" s="49" t="s">
+      <c r="F158" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10047,11 +10059,11 @@
       <c r="E159" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F159" s="49" t="s">
+      <c r="F159" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10065,11 +10077,11 @@
       <c r="E160" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F160" s="49" t="s">
+      <c r="F160" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10083,11 +10095,11 @@
       <c r="E161" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F161" s="49" t="s">
+      <c r="F161" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10101,11 +10113,11 @@
       <c r="E162" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F162" s="49" t="s">
+      <c r="F162" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10119,11 +10131,11 @@
       <c r="E163" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F163" s="49" t="s">
+      <c r="F163" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10137,11 +10149,11 @@
       <c r="E164" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F164" s="49" t="s">
+      <c r="F164" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10155,11 +10167,11 @@
       <c r="E165" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F165" s="49" t="s">
+      <c r="F165" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10173,11 +10185,11 @@
       <c r="E166" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F166" s="49" t="s">
+      <c r="F166" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10191,11 +10203,11 @@
       <c r="E167" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F167" s="49" t="s">
+      <c r="F167" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -10209,11 +10221,11 @@
       <c r="E168" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F168" s="49" t="s">
+      <c r="F168" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -10227,11 +10239,11 @@
       <c r="E169" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F169" s="49" t="s">
+      <c r="F169" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -10245,11 +10257,11 @@
       <c r="E170" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F170" s="49" t="s">
+      <c r="F170" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -10263,11 +10275,11 @@
       <c r="E171" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F171" s="49" t="s">
+      <c r="F171" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -10281,11 +10293,11 @@
       <c r="E172" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F172" s="49" t="s">
+      <c r="F172" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -10299,11 +10311,11 @@
       <c r="E173" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="F173" s="49" t="s">
+      <c r="F173" s="23" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -10319,11 +10331,11 @@
       <c r="E174" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="F174" s="49" t="s">
+      <c r="F174" s="23" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -10339,11 +10351,11 @@
       <c r="E175" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F175" s="49" t="s">
+      <c r="F175" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -10359,11 +10371,11 @@
       <c r="E176" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F176" s="49" t="s">
+      <c r="F176" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -10379,11 +10391,11 @@
       <c r="E177" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F177" s="49" t="s">
+      <c r="F177" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -10399,11 +10411,11 @@
       <c r="E178" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="F178" s="49" t="s">
+      <c r="F178" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -10419,11 +10431,11 @@
       <c r="E179" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="F179" s="49" t="s">
+      <c r="F179" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -10439,11 +10451,11 @@
       <c r="E180" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F180" s="49" t="s">
+      <c r="F180" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -10459,11 +10471,11 @@
       <c r="E181" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F181" s="49" t="s">
+      <c r="F181" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -10479,11 +10491,11 @@
       <c r="E182" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F182" s="49" t="s">
+      <c r="F182" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -10499,11 +10511,11 @@
       <c r="E183" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F183" s="49" t="s">
+      <c r="F183" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -10519,11 +10531,11 @@
       <c r="E184" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F184" s="49" t="s">
+      <c r="F184" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -10539,11 +10551,11 @@
       <c r="E185" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F185" s="49" t="s">
+      <c r="F185" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -10559,11 +10571,11 @@
       <c r="E186" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F186" s="49" t="s">
+      <c r="F186" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -10579,11 +10591,11 @@
       <c r="E187" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F187" s="49" t="s">
+      <c r="F187" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -10597,11 +10609,11 @@
       <c r="E188" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F188" s="49" t="s">
+      <c r="F188" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -10615,11 +10627,11 @@
       <c r="E189" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F189" s="49" t="s">
+      <c r="F189" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -10635,11 +10647,11 @@
       <c r="E190" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F190" s="49" t="s">
+      <c r="F190" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -10655,11 +10667,11 @@
       <c r="E191" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F191" s="49" t="s">
+      <c r="F191" s="23" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10675,11 +10687,11 @@
       <c r="E192" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="F192" s="49" t="s">
+      <c r="F192" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="264" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="255" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -10695,11 +10707,11 @@
       <c r="E193" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="F193" s="49" t="s">
+      <c r="F193" s="23" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -10715,11 +10727,11 @@
       <c r="E194" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="F194" s="49" t="s">
+      <c r="F194" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="184.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -10735,11 +10747,11 @@
       <c r="E195" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F195" s="49" t="s">
+      <c r="F195" s="23" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -10755,11 +10767,11 @@
       <c r="E196" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F196" s="49" t="s">
+      <c r="F196" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -10775,11 +10787,11 @@
       <c r="E197" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F197" s="49" t="s">
+      <c r="F197" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -10795,11 +10807,11 @@
       <c r="E198" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F198" s="49" t="s">
+      <c r="F198" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -10815,11 +10827,11 @@
       <c r="E199" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="F199" s="49" t="s">
+      <c r="F199" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10835,11 +10847,11 @@
       <c r="E200" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F200" s="49" t="s">
+      <c r="F200" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -10855,11 +10867,11 @@
       <c r="E201" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="F201" s="49" t="s">
+      <c r="F201" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -10875,11 +10887,11 @@
       <c r="E202" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="F202" s="49" t="s">
+      <c r="F202" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -10895,11 +10907,11 @@
       <c r="E203" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F203" s="49" t="s">
+      <c r="F203" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -10915,11 +10927,11 @@
       <c r="E204" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="F204" s="49" t="s">
+      <c r="F204" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10935,11 +10947,11 @@
       <c r="E205" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F205" s="49" t="s">
+      <c r="F205" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -10955,11 +10967,11 @@
       <c r="E206" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F206" s="49" t="s">
+      <c r="F206" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -10975,11 +10987,11 @@
       <c r="E207" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="F207" s="49" t="s">
+      <c r="F207" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -10995,11 +11007,11 @@
       <c r="E208" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="F208" s="49" t="s">
+      <c r="F208" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -11015,11 +11027,11 @@
       <c r="E209" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="F209" s="49" t="s">
+      <c r="F209" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -11035,11 +11047,11 @@
       <c r="E210" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="F210" s="49" t="s">
+      <c r="F210" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -11055,11 +11067,11 @@
       <c r="E211" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F211" s="49" t="s">
+      <c r="F211" s="23" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -11075,11 +11087,11 @@
       <c r="E212" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F212" s="49" t="s">
+      <c r="F212" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -11095,11 +11107,11 @@
       <c r="E213" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F213" s="49" t="s">
+      <c r="F213" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -11115,11 +11127,11 @@
       <c r="E214" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F214" s="49" t="s">
+      <c r="F214" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -11135,11 +11147,11 @@
       <c r="E215" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F215" s="49" t="s">
+      <c r="F215" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -11155,11 +11167,11 @@
       <c r="E216" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F216" s="49" t="s">
+      <c r="F216" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -11175,11 +11187,11 @@
       <c r="E217" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="F217" s="49" t="s">
+      <c r="F217" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -11195,11 +11207,11 @@
       <c r="E218" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F218" s="49" t="s">
+      <c r="F218" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -11215,11 +11227,11 @@
       <c r="E219" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="F219" s="49" t="s">
+      <c r="F219" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -11235,11 +11247,11 @@
       <c r="E220" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="F220" s="49" t="s">
+      <c r="F220" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -11255,11 +11267,11 @@
       <c r="E221" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F221" s="49" t="s">
+      <c r="F221" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -11275,11 +11287,11 @@
       <c r="E222" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F222" s="49" t="s">
+      <c r="F222" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -11295,11 +11307,11 @@
       <c r="E223" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F223" s="49" t="s">
+      <c r="F223" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -11315,11 +11327,11 @@
       <c r="E224" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F224" s="49" t="s">
+      <c r="F224" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -11335,11 +11347,11 @@
       <c r="E225" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F225" s="49" t="s">
+      <c r="F225" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -11355,11 +11367,11 @@
       <c r="E226" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F226" s="49" t="s">
+      <c r="F226" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -11375,11 +11387,11 @@
       <c r="E227" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F227" s="49" t="s">
+      <c r="F227" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -11395,11 +11407,11 @@
       <c r="E228" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F228" s="49" t="s">
+      <c r="F228" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -11415,11 +11427,11 @@
       <c r="E229" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F229" s="49" t="s">
+      <c r="F229" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -11435,11 +11447,11 @@
       <c r="E230" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F230" s="49" t="s">
+      <c r="F230" s="23" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -11455,11 +11467,11 @@
       <c r="E231" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F231" s="49" t="s">
+      <c r="F231" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -11475,11 +11487,11 @@
       <c r="E232" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F232" s="49" t="s">
+      <c r="F232" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -11495,11 +11507,11 @@
       <c r="E233" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F233" s="49" t="s">
+      <c r="F233" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11515,11 +11527,11 @@
       <c r="E234" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F234" s="49" t="s">
+      <c r="F234" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11535,11 +11547,11 @@
       <c r="E235" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F235" s="49" t="s">
+      <c r="F235" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11555,11 +11567,11 @@
       <c r="E236" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F236" s="49" t="s">
+      <c r="F236" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11575,11 +11587,11 @@
       <c r="E237" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F237" s="49" t="s">
+      <c r="F237" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11595,11 +11607,11 @@
       <c r="E238" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F238" s="49" t="s">
+      <c r="F238" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11615,11 +11627,11 @@
       <c r="E239" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F239" s="49" t="s">
+      <c r="F239" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11635,11 +11647,11 @@
       <c r="E240" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F240" s="49" t="s">
+      <c r="F240" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11655,11 +11667,11 @@
       <c r="E241" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F241" s="49" t="s">
+      <c r="F241" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -11675,11 +11687,11 @@
       <c r="E242" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F242" s="49" t="s">
+      <c r="F242" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -11695,11 +11707,11 @@
       <c r="E243" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="F243" s="49" t="s">
+      <c r="F243" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -11715,11 +11727,11 @@
       <c r="E244" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F244" s="49" t="s">
+      <c r="F244" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -11735,11 +11747,11 @@
       <c r="E245" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F245" s="49" t="s">
+      <c r="F245" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -11755,11 +11767,11 @@
       <c r="E246" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F246" s="49" t="s">
+      <c r="F246" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -11775,11 +11787,11 @@
       <c r="E247" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F247" s="49" t="s">
+      <c r="F247" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -11795,11 +11807,11 @@
       <c r="E248" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F248" s="49" t="s">
+      <c r="F248" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -11815,11 +11827,11 @@
       <c r="E249" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F249" s="49" t="s">
+      <c r="F249" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -11835,11 +11847,11 @@
       <c r="E250" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F250" s="49" t="s">
+      <c r="F250" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -11855,11 +11867,11 @@
       <c r="E251" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F251" s="49" t="s">
+      <c r="F251" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -11875,11 +11887,11 @@
       <c r="E252" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F252" s="49" t="s">
+      <c r="F252" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -11895,11 +11907,11 @@
       <c r="E253" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F253" s="49" t="s">
+      <c r="F253" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -11915,11 +11927,11 @@
       <c r="E254" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F254" s="49" t="s">
+      <c r="F254" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -11935,11 +11947,11 @@
       <c r="E255" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F255" s="49" t="s">
+      <c r="F255" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -11955,11 +11967,11 @@
       <c r="E256" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F256" s="49" t="s">
+      <c r="F256" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -11975,11 +11987,11 @@
       <c r="E257" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F257" s="49" t="s">
+      <c r="F257" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -11995,11 +12007,11 @@
       <c r="E258" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F258" s="49" t="s">
+      <c r="F258" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -12015,11 +12027,11 @@
       <c r="E259" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F259" s="49" t="s">
+      <c r="F259" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -12035,11 +12047,11 @@
       <c r="E260" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F260" s="49" t="s">
+      <c r="F260" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -12055,11 +12067,11 @@
       <c r="E261" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F261" s="49" t="s">
+      <c r="F261" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -12075,11 +12087,11 @@
       <c r="E262" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F262" s="49" t="s">
+      <c r="F262" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -12095,11 +12107,11 @@
       <c r="E263" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F263" s="49" t="s">
+      <c r="F263" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -12115,11 +12127,11 @@
       <c r="E264" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F264" s="49" t="s">
+      <c r="F264" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -12135,11 +12147,11 @@
       <c r="E265" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F265" s="49" t="s">
+      <c r="F265" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -12155,11 +12167,11 @@
       <c r="E266" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F266" s="49" t="s">
+      <c r="F266" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -12175,11 +12187,11 @@
       <c r="E267" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F267" s="49" t="s">
+      <c r="F267" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -12195,11 +12207,11 @@
       <c r="E268" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F268" s="49" t="s">
+      <c r="F268" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -12215,11 +12227,11 @@
       <c r="E269" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F269" s="49" t="s">
+      <c r="F269" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -12235,11 +12247,11 @@
       <c r="E270" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F270" s="49" t="s">
+      <c r="F270" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -12255,11 +12267,11 @@
       <c r="E271" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F271" s="49" t="s">
+      <c r="F271" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -12275,11 +12287,11 @@
       <c r="E272" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F272" s="49" t="s">
+      <c r="F272" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -12295,11 +12307,11 @@
       <c r="E273" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F273" s="49" t="s">
+      <c r="F273" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -12315,11 +12327,11 @@
       <c r="E274" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F274" s="49" t="s">
+      <c r="F274" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -12335,11 +12347,11 @@
       <c r="E275" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F275" s="49" t="s">
+      <c r="F275" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -12355,11 +12367,11 @@
       <c r="E276" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F276" s="49" t="s">
+      <c r="F276" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -12375,11 +12387,11 @@
       <c r="E277" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F277" s="49" t="s">
+      <c r="F277" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -12395,11 +12407,11 @@
       <c r="E278" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F278" s="49" t="s">
+      <c r="F278" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -12415,11 +12427,11 @@
       <c r="E279" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F279" s="49" t="s">
+      <c r="F279" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -12435,11 +12447,11 @@
       <c r="E280" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F280" s="49" t="s">
+      <c r="F280" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -12455,11 +12467,11 @@
       <c r="E281" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F281" s="49" t="s">
+      <c r="F281" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -12475,11 +12487,11 @@
       <c r="E282" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F282" s="49" t="s">
+      <c r="F282" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -12495,11 +12507,11 @@
       <c r="E283" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F283" s="49" t="s">
+      <c r="F283" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -12515,11 +12527,11 @@
       <c r="E284" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F284" s="49" t="s">
+      <c r="F284" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -12535,11 +12547,11 @@
       <c r="E285" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F285" s="49" t="s">
+      <c r="F285" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -12555,11 +12567,11 @@
       <c r="E286" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F286" s="49" t="s">
+      <c r="F286" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -12575,11 +12587,11 @@
       <c r="E287" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F287" s="49" t="s">
+      <c r="F287" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -12595,11 +12607,11 @@
       <c r="E288" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F288" s="49" t="s">
+      <c r="F288" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -12615,11 +12627,11 @@
       <c r="E289" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F289" s="49" t="s">
+      <c r="F289" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -12635,11 +12647,11 @@
       <c r="E290" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="F290" s="49" t="s">
+      <c r="F290" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -12655,11 +12667,11 @@
       <c r="E291" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F291" s="49" t="s">
+      <c r="F291" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -12675,11 +12687,11 @@
       <c r="E292" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F292" s="49" t="s">
+      <c r="F292" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -12695,11 +12707,11 @@
       <c r="E293" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F293" s="49" t="s">
+      <c r="F293" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -12715,11 +12727,11 @@
       <c r="E294" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F294" s="49" t="s">
+      <c r="F294" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -12735,11 +12747,11 @@
       <c r="E295" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F295" s="49" t="s">
+      <c r="F295" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -12755,11 +12767,11 @@
       <c r="E296" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F296" s="49" t="s">
+      <c r="F296" s="23" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -12775,11 +12787,11 @@
       <c r="E297" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F297" s="49" t="s">
+      <c r="F297" s="23" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -12795,11 +12807,11 @@
       <c r="E298" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F298" s="49" t="s">
+      <c r="F298" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -12815,11 +12827,11 @@
       <c r="E299" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F299" s="49" t="s">
+      <c r="F299" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -12835,11 +12847,11 @@
       <c r="E300" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F300" s="49" t="s">
+      <c r="F300" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -12855,11 +12867,11 @@
       <c r="E301" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F301" s="49" t="s">
+      <c r="F301" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -12875,11 +12887,11 @@
       <c r="E302" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F302" s="49" t="s">
+      <c r="F302" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -12895,11 +12907,11 @@
       <c r="E303" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F303" s="49" t="s">
+      <c r="F303" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -12915,11 +12927,11 @@
       <c r="E304" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F304" s="49" t="s">
+      <c r="F304" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -12935,11 +12947,11 @@
       <c r="E305" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F305" s="49" t="s">
+      <c r="F305" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -12955,11 +12967,11 @@
       <c r="E306" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F306" s="49" t="s">
+      <c r="F306" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -12975,11 +12987,11 @@
       <c r="E307" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="F307" s="49" t="s">
+      <c r="F307" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -12995,11 +13007,11 @@
       <c r="E308" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F308" s="49" t="s">
+      <c r="F308" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -13015,11 +13027,11 @@
       <c r="E309" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F309" s="49" t="s">
+      <c r="F309" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -13035,11 +13047,11 @@
       <c r="E310" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F310" s="49" t="s">
+      <c r="F310" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -13055,11 +13067,11 @@
       <c r="E311" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F311" s="49" t="s">
+      <c r="F311" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -13075,11 +13087,11 @@
       <c r="E312" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F312" s="49" t="s">
+      <c r="F312" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -13095,11 +13107,11 @@
       <c r="E313" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F313" s="49" t="s">
+      <c r="F313" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -13115,11 +13127,11 @@
       <c r="E314" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F314" s="49" t="s">
+      <c r="F314" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -13135,11 +13147,11 @@
       <c r="E315" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F315" s="49" t="s">
+      <c r="F315" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -13155,11 +13167,11 @@
       <c r="E316" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F316" s="49" t="s">
+      <c r="F316" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -13175,11 +13187,11 @@
       <c r="E317" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F317" s="49" t="s">
+      <c r="F317" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -13195,11 +13207,11 @@
       <c r="E318" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F318" s="49" t="s">
+      <c r="F318" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -13215,11 +13227,11 @@
       <c r="E319" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F319" s="49" t="s">
+      <c r="F319" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -13235,11 +13247,11 @@
       <c r="E320" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F320" s="49" t="s">
+      <c r="F320" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -13255,11 +13267,11 @@
       <c r="E321" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F321" s="49" t="s">
+      <c r="F321" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -13275,11 +13287,11 @@
       <c r="E322" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F322" s="49" t="s">
+      <c r="F322" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -13295,11 +13307,11 @@
       <c r="E323" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F323" s="49" t="s">
+      <c r="F323" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -13315,11 +13327,11 @@
       <c r="E324" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F324" s="49" t="s">
+      <c r="F324" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -13335,11 +13347,11 @@
       <c r="E325" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F325" s="49" t="s">
+      <c r="F325" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -13355,11 +13367,11 @@
       <c r="E326" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F326" s="49" t="s">
+      <c r="F326" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -13375,11 +13387,11 @@
       <c r="E327" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F327" s="49" t="s">
+      <c r="F327" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -13395,11 +13407,11 @@
       <c r="E328" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F328" s="49" t="s">
+      <c r="F328" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -13415,11 +13427,11 @@
       <c r="E329" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F329" s="49" t="s">
+      <c r="F329" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -13435,11 +13447,11 @@
       <c r="E330" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F330" s="49" t="s">
+      <c r="F330" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -13455,11 +13467,11 @@
       <c r="E331" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F331" s="49" t="s">
+      <c r="F331" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -13475,11 +13487,11 @@
       <c r="E332" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F332" s="49" t="s">
+      <c r="F332" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -13495,11 +13507,11 @@
       <c r="E333" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F333" s="49" t="s">
+      <c r="F333" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -13515,11 +13527,11 @@
       <c r="E334" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F334" s="49" t="s">
+      <c r="F334" s="23" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -13535,11 +13547,11 @@
       <c r="E335" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F335" s="49" t="s">
+      <c r="F335" s="23" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -13555,11 +13567,11 @@
       <c r="E336" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F336" s="49" t="s">
+      <c r="F336" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -13575,11 +13587,11 @@
       <c r="E337" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F337" s="49" t="s">
+      <c r="F337" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -13595,11 +13607,11 @@
       <c r="E338" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F338" s="49" t="s">
+      <c r="F338" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -13615,11 +13627,11 @@
       <c r="E339" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F339" s="49" t="s">
+      <c r="F339" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -13635,11 +13647,11 @@
       <c r="E340" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F340" s="49" t="s">
+      <c r="F340" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -13655,11 +13667,11 @@
       <c r="E341" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F341" s="49" t="s">
+      <c r="F341" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -13675,11 +13687,11 @@
       <c r="E342" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F342" s="49" t="s">
+      <c r="F342" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -13695,11 +13707,11 @@
       <c r="E343" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F343" s="49" t="s">
+      <c r="F343" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -13715,11 +13727,11 @@
       <c r="E344" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F344" s="49" t="s">
+      <c r="F344" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -13735,11 +13747,11 @@
       <c r="E345" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="F345" s="49" t="s">
+      <c r="F345" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -13755,11 +13767,11 @@
       <c r="E346" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F346" s="49" t="s">
+      <c r="F346" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -13775,11 +13787,11 @@
       <c r="E347" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F347" s="49" t="s">
+      <c r="F347" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -13795,11 +13807,11 @@
       <c r="E348" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F348" s="49" t="s">
+      <c r="F348" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -13815,11 +13827,11 @@
       <c r="E349" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F349" s="49" t="s">
+      <c r="F349" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -13835,11 +13847,11 @@
       <c r="E350" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F350" s="49" t="s">
+      <c r="F350" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -13855,11 +13867,11 @@
       <c r="E351" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F351" s="49" t="s">
+      <c r="F351" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -13875,11 +13887,11 @@
       <c r="E352" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F352" s="49" t="s">
+      <c r="F352" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -13895,11 +13907,11 @@
       <c r="E353" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F353" s="49" t="s">
+      <c r="F353" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -13915,11 +13927,11 @@
       <c r="E354" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F354" s="49" t="s">
+      <c r="F354" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -13935,11 +13947,11 @@
       <c r="E355" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="F355" s="49" t="s">
+      <c r="F355" s="23" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -13955,11 +13967,11 @@
       <c r="E356" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F356" s="49" t="s">
+      <c r="F356" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -13975,11 +13987,11 @@
       <c r="E357" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F357" s="49" t="s">
+      <c r="F357" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -13995,11 +14007,11 @@
       <c r="E358" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F358" s="49" t="s">
+      <c r="F358" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -14015,11 +14027,11 @@
       <c r="E359" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F359" s="49" t="s">
+      <c r="F359" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -14035,11 +14047,11 @@
       <c r="E360" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F360" s="49" t="s">
+      <c r="F360" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -14055,11 +14067,11 @@
       <c r="E361" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F361" s="49" t="s">
+      <c r="F361" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -14075,11 +14087,11 @@
       <c r="E362" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F362" s="49" t="s">
+      <c r="F362" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -14095,11 +14107,11 @@
       <c r="E363" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F363" s="49" t="s">
+      <c r="F363" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -14115,11 +14127,11 @@
       <c r="E364" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F364" s="49" t="s">
+      <c r="F364" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -14135,11 +14147,11 @@
       <c r="E365" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F365" s="49" t="s">
+      <c r="F365" s="23" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -14155,11 +14167,11 @@
       <c r="E366" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F366" s="49" t="s">
+      <c r="F366" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -14175,11 +14187,11 @@
       <c r="E367" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F367" s="49" t="s">
+      <c r="F367" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -14195,19 +14207,19 @@
       <c r="E368" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F368" s="49" t="s">
+      <c r="F368" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>941</v>
+        <v>987</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>378</v>
@@ -14215,19 +14227,19 @@
       <c r="E369" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F369" s="49" t="s">
+      <c r="F369" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>942</v>
+        <v>988</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>378</v>
@@ -14235,16 +14247,16 @@
       <c r="E370" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F370" s="49" t="s">
+      <c r="F370" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>936</v>
@@ -14255,19 +14267,19 @@
       <c r="E371" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F371" s="49" t="s">
+      <c r="F371" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>378</v>
@@ -14275,19 +14287,19 @@
       <c r="E372" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F372" s="49" t="s">
+      <c r="F372" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>378</v>
@@ -14295,19 +14307,19 @@
       <c r="E373" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F373" s="49" t="s">
+      <c r="F373" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>946</v>
+        <v>989</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>378</v>
@@ -14315,999 +14327,1119 @@
       <c r="E374" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="F374" s="49" t="s">
+      <c r="F374" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>37</v>
+      <c r="B375" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>38</v>
+        <v>936</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>848</v>
+        <v>378</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="F375" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="F375" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
-      <c r="B376" s="1" t="s">
-        <v>39</v>
+      <c r="B376" s="2" t="s">
+        <v>944</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>40</v>
+        <v>937</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>848</v>
+        <v>378</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="F376" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="F376" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>41</v>
+      <c r="B377" s="2" t="s">
+        <v>945</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D377" s="1"/>
+        <v>937</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E377" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="F377" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="F377" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>48</v>
+      <c r="B378" s="2" t="s">
+        <v>946</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>316</v>
+        <v>937</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="F378" s="49" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="F378" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>49</v>
+      <c r="B379" s="2" t="s">
+        <v>989</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>317</v>
+        <v>937</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="F379" s="49" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="F379" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>123</v>
+      <c r="B380" s="2" t="s">
+        <v>990</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>318</v>
+        <v>937</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>852</v>
+        <v>378</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="F380" s="49" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+      <c r="F380" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>323</v>
+        <v>848</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="F381" s="49" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="F381" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E382" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="F382" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F382" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D383" s="1"/>
       <c r="E383" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="F383" s="49" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="F383" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F384" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="F384" s="23" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>264</v>
+        <v>49</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="F385" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="F385" s="23" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>378</v>
+        <v>852</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="F386" s="49" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+      <c r="F386" s="23" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
-      <c r="B387" s="2" t="s">
-        <v>857</v>
+      <c r="B387" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>858</v>
+        <v>125</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="F387" s="49" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+      <c r="F387" s="23" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>860</v>
+        <v>261</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="F388" s="49" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="E388" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="F388" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>862</v>
+        <v>126</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>921</v>
+        <v>378</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="F389" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="F389" s="23" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D390" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E390" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F390" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F390" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C391" s="7" t="s">
-        <v>142</v>
+        <v>264</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F391" s="49" t="s">
+        <v>855</v>
+      </c>
+      <c r="F391" s="23" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="F392" s="49" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="F392" s="23" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>130</v>
+      <c r="B393" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>271</v>
+        <v>858</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F393" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="F393" s="23" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>864</v>
+        <v>269</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>272</v>
+        <v>860</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>378</v>
+        <v>920</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F394" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+      <c r="F394" s="23" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>865</v>
+        <v>270</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>273</v>
+        <v>862</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>378</v>
+        <v>921</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F395" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="F395" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
-      <c r="B396" s="2" t="s">
-        <v>869</v>
+      <c r="B396" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>378</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D396" s="1"/>
       <c r="E396" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="F396" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F396" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
-      <c r="B397" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C397" s="6" t="s">
-        <v>866</v>
+      <c r="B397" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C397" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="F397" s="49" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F397" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>871</v>
+        <v>129</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F398" s="49" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="F398" s="23" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>378</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="F399" s="49" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F399" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
-      <c r="B400" s="2" t="s">
-        <v>867</v>
+      <c r="B400" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>868</v>
+        <v>272</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>922</v>
+        <v>378</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F400" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F400" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>276</v>
+        <v>865</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F401" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F401" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>278</v>
+      <c r="B402" s="2" t="s">
+        <v>869</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D402" s="1"/>
-      <c r="F402" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="F402" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
-      <c r="B403" s="1" t="s">
-        <v>133</v>
+      <c r="B403" s="2" t="s">
+        <v>870</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>5</v>
+        <v>866</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F403" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+      <c r="F403" s="23" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>319</v>
+        <v>871</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>934</v>
+        <v>274</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F404" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F404" s="23" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>932</v>
+        <v>131</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>933</v>
+        <v>275</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>950</v>
+        <v>378</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="F405" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+      <c r="F405" s="23" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>295</v>
+      <c r="B406" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D406" s="1"/>
+        <v>868</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>922</v>
+      </c>
       <c r="E406" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F406" s="49" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F406" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C407" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F407" s="49" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F407" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>135</v>
+        <v>278</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F408" s="49" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="D408" s="1"/>
+      <c r="F408" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F409" s="49" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F409" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>50</v>
+        <v>319</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D410" s="3" t="s">
-        <v>5</v>
+        <v>934</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F410" s="49" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="F410" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>52</v>
+        <v>932</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>5</v>
+        <v>933</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F411" s="49" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+      <c r="F411" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="D412" s="1"/>
       <c r="E412" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F412" s="49" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="F412" s="23" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C413" s="6" t="s">
-        <v>53</v>
+        <v>134</v>
+      </c>
+      <c r="C413" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F413" s="49" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="F413" s="23" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F414" s="49" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F414" s="23" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F415" s="49" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F415" s="23" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F416" s="49" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F416" s="23" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
-      <c r="B417" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="C417" s="4" t="s">
-        <v>876</v>
+      <c r="B417" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="F417" s="49" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F417" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
-      <c r="B418" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>878</v>
+      <c r="B418" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="F418" s="49" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F418" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
-      <c r="B419" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="C419" s="4" t="s">
-        <v>880</v>
+      <c r="B419" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="F419" s="49" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F419" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>882</v>
+      <c r="B420" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="F420" s="49" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F420" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>884</v>
+      <c r="B421" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>885</v>
+        <v>53</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="F421" s="49" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F421" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>282</v>
+        <v>53</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F422" s="49" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F422" s="23" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="B423" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F423" s="23" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>423</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F424" s="23" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>424</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F425" s="23" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>425</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F426" s="23" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>426</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C427" s="6" t="s">
+        <v>885</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F427" s="23" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C428" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F428" s="23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>428</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C423" s="6" t="s">
+      <c r="C429" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D423" s="3" t="s">
+      <c r="D429" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E423" s="1" t="s">
+      <c r="E429" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F423" s="49" t="s">
+      <c r="F429" s="23" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="9"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="9"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="9"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="9"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="9"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="9"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
     </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432" s="9"/>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="9"/>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="9"/>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435" s="9"/>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436" s="9"/>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F423" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:F429" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15322,9 +15454,9 @@
       <selection activeCell="B14" sqref="B14:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -15374,7 +15506,7 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -15424,7 +15556,7 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -15474,7 +15606,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -15524,7 +15656,7 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -15574,7 +15706,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -15624,7 +15756,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -15674,7 +15806,7 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -15724,7 +15856,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -15774,7 +15906,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -15824,7 +15956,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -15874,142 +16006,142 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+    <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
         <v>966</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
     </row>
-    <row r="19" spans="2:22" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
+    <row r="19" spans="2:22" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16032,9 +16164,9 @@
       <selection activeCell="B14" sqref="B14:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -16072,7 +16204,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -16110,7 +16242,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -16148,7 +16280,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -16186,7 +16318,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -16224,7 +16356,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -16262,7 +16394,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -16300,7 +16432,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -16338,7 +16470,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -16376,7 +16508,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -16414,7 +16546,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -16452,21 +16584,21 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
+    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
         <v>965</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
@@ -16475,19 +16607,19 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
@@ -16496,19 +16628,19 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
@@ -16517,19 +16649,19 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
@@ -16538,19 +16670,19 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -16559,19 +16691,19 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -16580,75 +16712,75 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-    </row>
-    <row r="23" spans="2:20" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="44"/>
-    </row>
-    <row r="24" spans="2:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+    </row>
+    <row r="23" spans="2:20" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="2:20" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16671,9 +16803,9 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -16708,7 +16840,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -16743,7 +16875,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -16778,7 +16910,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -16813,7 +16945,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -16848,7 +16980,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -16883,7 +17015,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -16918,7 +17050,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -16953,7 +17085,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -16988,7 +17120,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -17023,7 +17155,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -17058,150 +17190,150 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
+    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
         <v>967</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-    </row>
-    <row r="24" spans="2:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="2:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17224,9 +17356,9 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -17240,7 +17372,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -17254,7 +17386,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -17268,7 +17400,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -17282,7 +17414,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -17292,7 +17424,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -17306,7 +17438,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -17318,7 +17450,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -17332,7 +17464,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -17346,7 +17478,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -17360,7 +17492,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -17374,111 +17506,111 @@
         <v>954</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="38" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
         <v>955</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17494,26 +17626,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -17762,10 +17874,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E9B29C-6002-4AC7-AFE2-C0F7588FC94E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17788,20 +17931,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4E9B29C-6002-4AC7-AFE2-C0F7588FC94E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B292CFA-1308-4FFE-AD60-D9B08AB144B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inputs/EU2 GPP 2023 Full Datamap.xlsx
+++ b/inputs/EU2 GPP 2023 Full Datamap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\Documents\GitHub\EU-copilot\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/eu-gpp/0. Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E843A3-3B32-4506-A897-6C05EE05E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{68E843A3-3B32-4506-A897-6C05EE05E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92956E21-C6BA-4AE1-B22B-9CE744B68546}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="895" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="21" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="993">
   <si>
     <t>Position</t>
   </si>
@@ -5892,6 +5892,12 @@
   </si>
   <si>
     <t>q60_G2_99</t>
+  </si>
+  <si>
+    <t>q60_G3_98</t>
+  </si>
+  <si>
+    <t>q60_G3_99</t>
   </si>
 </sst>
 </file>
@@ -6864,21 +6870,21 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F1" s="27" t="s">
         <v>358</v>
       </c>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
         <v>363</v>
       </c>
@@ -6889,7 +6895,7 @@
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -6898,8 +6904,8 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="28" t="s">
         <v>359</v>
@@ -6911,7 +6917,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>364</v>
       </c>
@@ -6922,7 +6928,7 @@
       <c r="G6" s="32"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="34" t="s">
         <v>889</v>
       </c>
@@ -6933,7 +6939,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34" t="s">
         <v>888</v>
       </c>
@@ -6944,7 +6950,7 @@
       <c r="G8" s="35"/>
       <c r="H8" s="36"/>
     </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
         <v>890</v>
       </c>
@@ -6955,7 +6961,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>951</v>
       </c>
@@ -6966,7 +6972,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -6995,23 +7001,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F437"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C425" sqref="C425"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B381" sqref="B381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="42" style="8" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="23" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="8"/>
+    <col min="4" max="4" width="25.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7109,7 +7115,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7127,7 +7133,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7207,7 +7213,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7267,7 +7273,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7307,7 +7313,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7327,7 +7333,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7347,7 +7353,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7387,7 +7393,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7547,7 +7553,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -7627,7 +7633,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -7667,7 +7673,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -7687,7 +7693,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7747,7 +7753,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7847,7 +7853,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7867,7 +7873,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -7887,7 +7893,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -7907,7 +7913,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7967,7 +7973,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8007,7 +8013,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8027,7 +8033,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8047,7 +8053,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8067,7 +8073,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8087,7 +8093,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8107,7 +8113,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8127,7 +8133,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8147,7 +8153,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8187,7 +8193,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8207,7 +8213,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8227,7 +8233,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8327,7 +8333,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8347,7 +8353,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8367,7 +8373,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8387,7 +8393,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8407,7 +8413,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8467,7 +8473,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8507,7 +8513,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8527,7 +8533,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8567,7 +8573,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8627,7 +8633,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8647,7 +8653,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8667,7 +8673,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8687,7 +8693,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8707,7 +8713,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8727,7 +8733,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8747,7 +8753,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8767,7 +8773,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8787,7 +8793,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -8807,7 +8813,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -8827,7 +8833,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -8847,7 +8853,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -8867,7 +8873,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -8887,7 +8893,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -8907,7 +8913,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8927,7 +8933,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -8947,7 +8953,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -9001,7 +9007,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9019,7 +9025,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9037,7 +9043,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9073,7 +9079,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9091,7 +9097,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9109,7 +9115,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9127,7 +9133,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -9145,7 +9151,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -9199,7 +9205,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -9217,7 +9223,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -9235,7 +9241,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -9253,7 +9259,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -9271,7 +9277,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9289,7 +9295,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -9307,7 +9313,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9325,7 +9331,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9343,7 +9349,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9361,7 +9367,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9379,7 +9385,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9397,7 +9403,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9433,7 +9439,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9451,7 +9457,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9469,7 +9475,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9487,7 +9493,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9505,7 +9511,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9523,7 +9529,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9559,7 +9565,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9577,7 +9583,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9595,7 +9601,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9613,7 +9619,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9631,7 +9637,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9649,7 +9655,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9685,7 +9691,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9703,7 +9709,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9721,7 +9727,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9739,7 +9745,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9757,7 +9763,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9775,7 +9781,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9793,7 +9799,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9811,7 +9817,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -9829,7 +9835,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -9847,7 +9853,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -9865,7 +9871,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -9883,7 +9889,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -9901,7 +9907,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -9919,7 +9925,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -9937,7 +9943,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -9955,7 +9961,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -9973,7 +9979,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -9991,7 +9997,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10009,7 +10015,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10027,7 +10033,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10045,7 +10051,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10063,7 +10069,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10081,7 +10087,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10099,7 +10105,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10117,7 +10123,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10135,7 +10141,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10153,7 +10159,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10171,7 +10177,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10189,7 +10195,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10207,7 +10213,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -10225,7 +10231,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -10243,7 +10249,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -10261,7 +10267,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -10279,7 +10285,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -10297,7 +10303,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -10315,7 +10321,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -10335,7 +10341,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -10355,7 +10361,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -10375,7 +10381,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -10395,7 +10401,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -10415,7 +10421,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -10435,7 +10441,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -10455,7 +10461,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -10475,7 +10481,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -10495,7 +10501,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -10515,7 +10521,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -10535,7 +10541,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -10555,7 +10561,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -10575,7 +10581,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -10613,7 +10619,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -10631,7 +10637,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -10651,7 +10657,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="237.6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -10671,7 +10677,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="132" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10691,7 +10697,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="255" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -10731,7 +10737,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="178.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -10751,7 +10757,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -10771,7 +10777,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -10811,7 +10817,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -10831,7 +10837,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10851,7 +10857,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -10871,7 +10877,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -10891,7 +10897,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -10911,7 +10917,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -10931,7 +10937,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10951,7 +10957,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -10971,7 +10977,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -10991,7 +10997,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -11011,7 +11017,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -11031,7 +11037,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -11051,7 +11057,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="216.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="237.6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -11071,7 +11077,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -11111,7 +11117,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -11131,7 +11137,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -11151,7 +11157,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -11171,7 +11177,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -11191,7 +11197,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -11251,7 +11257,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -11271,7 +11277,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -11291,7 +11297,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -11311,7 +11317,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -11331,7 +11337,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -11351,7 +11357,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -11371,7 +11377,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -11391,7 +11397,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -11411,7 +11417,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -11431,7 +11437,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -11451,7 +11457,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -11471,7 +11477,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -11491,7 +11497,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -11511,7 +11517,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11551,7 +11557,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11591,7 +11597,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11611,7 +11617,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11631,7 +11637,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11651,7 +11657,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11671,7 +11677,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -11691,7 +11697,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -11711,7 +11717,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -11731,7 +11737,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -11751,7 +11757,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -11771,7 +11777,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -11791,7 +11797,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -11811,7 +11817,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -11831,7 +11837,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -11851,7 +11857,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -11871,7 +11877,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -11891,7 +11897,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -11911,7 +11917,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -11931,7 +11937,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -11951,7 +11957,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -11971,7 +11977,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -11991,7 +11997,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -12011,7 +12017,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -12031,7 +12037,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -12051,7 +12057,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -12071,7 +12077,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -12091,7 +12097,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -12111,7 +12117,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -12131,7 +12137,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -12151,7 +12157,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -12171,7 +12177,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -12191,7 +12197,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -12211,7 +12217,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -12231,7 +12237,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -12251,7 +12257,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -12291,7 +12297,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -12311,7 +12317,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -12331,7 +12337,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -12351,7 +12357,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -12371,7 +12377,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -12391,7 +12397,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -12411,7 +12417,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -12431,7 +12437,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -12451,7 +12457,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -12471,7 +12477,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -12491,7 +12497,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -12511,7 +12517,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -12531,7 +12537,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -12551,7 +12557,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -12571,7 +12577,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -12591,7 +12597,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -12611,7 +12617,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -12631,7 +12637,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -12651,7 +12657,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -12671,7 +12677,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -12691,7 +12697,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -12711,7 +12717,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -12731,7 +12737,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -12751,7 +12757,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -12771,7 +12777,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -12791,7 +12797,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -12811,7 +12817,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -12831,7 +12837,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -12851,7 +12857,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -12871,7 +12877,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -12891,7 +12897,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -12911,7 +12917,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -12931,7 +12937,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -12951,7 +12957,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -12971,7 +12977,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -12991,7 +12997,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -13011,7 +13017,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -13031,7 +13037,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -13051,7 +13057,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -13071,7 +13077,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -13091,7 +13097,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -13111,7 +13117,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -13131,7 +13137,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -13151,7 +13157,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -13171,7 +13177,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -13191,7 +13197,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -13211,7 +13217,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -13231,7 +13237,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -13251,7 +13257,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -13271,7 +13277,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -13291,7 +13297,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -13311,7 +13317,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -13331,7 +13337,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -13351,7 +13357,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -13371,7 +13377,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -13391,7 +13397,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -13411,7 +13417,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -13431,7 +13437,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -13451,7 +13457,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -13471,7 +13477,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -13491,7 +13497,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -13511,7 +13517,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -13531,7 +13537,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -13551,7 +13557,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -13571,7 +13577,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -13591,7 +13597,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -13611,7 +13617,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -13631,7 +13637,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -13651,7 +13657,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -13671,7 +13677,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -13691,7 +13697,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -13711,7 +13717,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -13731,7 +13737,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -13751,7 +13757,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -13771,7 +13777,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -13791,7 +13797,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -13811,7 +13817,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -13831,7 +13837,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -13851,7 +13857,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -13871,7 +13877,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -13891,7 +13897,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -13911,7 +13917,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -13931,7 +13937,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -13951,7 +13957,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -13971,7 +13977,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -13991,7 +13997,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -14011,7 +14017,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -14031,7 +14037,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -14051,7 +14057,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -14071,7 +14077,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -14091,7 +14097,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -14111,7 +14117,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -14131,7 +14137,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -14151,7 +14157,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -14171,7 +14177,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -14191,7 +14197,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -14211,7 +14217,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -14231,7 +14237,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -14251,7 +14257,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -14271,7 +14277,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -14291,7 +14297,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -14311,7 +14317,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -14331,7 +14337,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -14351,7 +14357,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -14371,7 +14377,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -14391,7 +14397,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -14411,12 +14417,12 @@
         <v>968</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>937</v>
@@ -14431,12 +14437,12 @@
         <v>968</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>937</v>
@@ -14451,7 +14457,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -14471,7 +14477,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -14491,7 +14497,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -14509,7 +14515,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -14529,7 +14535,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -14549,7 +14555,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -14569,7 +14575,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="132" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -14589,7 +14595,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -14609,7 +14615,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -14629,7 +14635,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -14649,7 +14655,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -14669,7 +14675,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -14689,7 +14695,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -14709,7 +14715,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -14729,7 +14735,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -14767,7 +14773,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -14787,7 +14793,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -14807,7 +14813,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -14827,7 +14833,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -14847,7 +14853,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -14867,7 +14873,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -14887,7 +14893,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -14907,7 +14913,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -14927,7 +14933,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -14947,7 +14953,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -14967,7 +14973,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -14981,7 +14987,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -14996,7 +15002,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -15016,7 +15022,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -15036,7 +15042,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -15056,7 +15062,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -15074,7 +15080,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -15094,7 +15100,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -15114,7 +15120,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -15134,7 +15140,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -15154,7 +15160,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -15174,7 +15180,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -15194,7 +15200,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -15214,7 +15220,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -15234,7 +15240,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -15254,7 +15260,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -15274,7 +15280,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -15294,7 +15300,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -15314,7 +15320,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -15334,7 +15340,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -15354,7 +15360,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -15374,7 +15380,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -15394,7 +15400,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -15414,28 +15420,28 @@
         <v>968</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="9"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="9"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="9"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="9"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="9"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="9"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="9"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="9"/>
     </row>
   </sheetData>
@@ -15454,9 +15460,9 @@
       <selection activeCell="B14" sqref="B14:S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -15506,7 +15512,7 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -15556,7 +15562,7 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -15606,7 +15612,7 @@
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -15656,7 +15662,7 @@
       <c r="R5" s="16"/>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -15706,7 +15712,7 @@
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -15756,7 +15762,7 @@
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -15806,7 +15812,7 @@
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -15856,7 +15862,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -15906,7 +15912,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -15956,7 +15962,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -16006,7 +16012,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>966</v>
       </c>
@@ -16031,7 +16037,7 @@
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -16054,7 +16060,7 @@
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -16077,7 +16083,7 @@
       <c r="U16" s="14"/>
       <c r="V16" s="14"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -16100,7 +16106,7 @@
       <c r="U17" s="14"/>
       <c r="V17" s="14"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -16123,7 +16129,7 @@
       <c r="U18" s="14"/>
       <c r="V18" s="14"/>
     </row>
-    <row r="19" spans="2:22" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -16164,9 +16170,9 @@
       <selection activeCell="B14" sqref="B14:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -16204,7 +16210,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -16242,7 +16248,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -16280,7 +16286,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -16318,7 +16324,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -16356,7 +16362,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -16394,7 +16400,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -16432,7 +16438,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -16470,7 +16476,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -16508,7 +16514,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -16546,7 +16552,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -16584,7 +16590,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>965</v>
       </c>
@@ -16607,7 +16613,7 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -16628,7 +16634,7 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="43"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -16649,7 +16655,7 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="43"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
@@ -16670,7 +16676,7 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="43"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
@@ -16691,7 +16697,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" s="43"/>
       <c r="C19" s="44"/>
       <c r="D19" s="44"/>
@@ -16712,7 +16718,7 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" s="43"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -16726,7 +16732,7 @@
       <c r="L20" s="44"/>
       <c r="M20" s="45"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="43"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44"/>
@@ -16740,7 +16746,7 @@
       <c r="L21" s="44"/>
       <c r="M21" s="45"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="43"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -16754,7 +16760,7 @@
       <c r="L22" s="44"/>
       <c r="M22" s="45"/>
     </row>
-    <row r="23" spans="2:20" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44"/>
@@ -16768,7 +16774,7 @@
       <c r="L23" s="44"/>
       <c r="M23" s="45"/>
     </row>
-    <row r="24" spans="2:20" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -16803,9 +16809,9 @@
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -16840,7 +16846,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -16875,7 +16881,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -16910,7 +16916,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -16945,7 +16951,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -16980,7 +16986,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -17015,7 +17021,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -17050,7 +17056,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -17085,7 +17091,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -17120,7 +17126,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -17155,7 +17161,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -17190,7 +17196,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="49" t="s">
         <v>967</v>
       </c>
@@ -17205,7 +17211,7 @@
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
@@ -17218,7 +17224,7 @@
       <c r="K15" s="49"/>
       <c r="L15" s="49"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
@@ -17231,7 +17237,7 @@
       <c r="K16" s="49"/>
       <c r="L16" s="49"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
@@ -17244,7 +17250,7 @@
       <c r="K17" s="49"/>
       <c r="L17" s="49"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
@@ -17257,7 +17263,7 @@
       <c r="K18" s="49"/>
       <c r="L18" s="49"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
@@ -17270,7 +17276,7 @@
       <c r="K19" s="49"/>
       <c r="L19" s="49"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
       <c r="D20" s="49"/>
@@ -17283,7 +17289,7 @@
       <c r="K20" s="49"/>
       <c r="L20" s="49"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
       <c r="D21" s="49"/>
@@ -17296,7 +17302,7 @@
       <c r="K21" s="49"/>
       <c r="L21" s="49"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
       <c r="D22" s="49"/>
@@ -17309,7 +17315,7 @@
       <c r="K22" s="49"/>
       <c r="L22" s="49"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>
@@ -17322,7 +17328,7 @@
       <c r="K23" s="49"/>
       <c r="L23" s="49"/>
     </row>
-    <row r="24" spans="2:12" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
       <c r="D24" s="49"/>
@@ -17356,9 +17362,9 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>362</v>
       </c>
@@ -17372,7 +17378,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="16">
         <v>1</v>
       </c>
@@ -17386,7 +17392,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>2</v>
       </c>
@@ -17400,7 +17406,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>3</v>
       </c>
@@ -17414,7 +17420,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>4</v>
       </c>
@@ -17424,7 +17430,7 @@
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>5</v>
       </c>
@@ -17438,7 +17444,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>6</v>
       </c>
@@ -17450,7 +17456,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>7</v>
       </c>
@@ -17464,7 +17470,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>8</v>
       </c>
@@ -17478,7 +17484,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>9</v>
       </c>
@@ -17492,7 +17498,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>10</v>
       </c>
@@ -17506,7 +17512,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="39" t="s">
         <v>955</v>
       </c>
@@ -17521,7 +17527,7 @@
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -17534,7 +17540,7 @@
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -17547,7 +17553,7 @@
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
@@ -17560,7 +17566,7 @@
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -17573,7 +17579,7 @@
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -17586,7 +17592,7 @@
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -17599,7 +17605,7 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
